--- a/Data/raw_imaging_data.xlsx
+++ b/Data/raw_imaging_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonahschwartz/Documents/GitHub/Projects/ent-imaging-analysis/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonahschwartz/Documents/GitHub/Sleep-Final-Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323512C4-4E17-5A4B-9CCD-78C8DBF94931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF41F91-3F89-B642-BD89-3179B3FA59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1280" windowWidth="28800" windowHeight="16440" xr2:uid="{9C7DD11A-90AC-4141-B5D8-9465E75F7745}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16460" xr2:uid="{9C7DD11A-90AC-4141-B5D8-9465E75F7745}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -586,8 +586,8 @@
   <dimension ref="A1:K406"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E226" sqref="E226"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6107,6 +6107,9 @@
       <c r="B158" s="2">
         <v>212628</v>
       </c>
+      <c r="C158" s="2">
+        <v>74</v>
+      </c>
       <c r="D158" s="2" t="s">
         <v>5</v>
       </c>
@@ -9008,6 +9011,9 @@
       </c>
       <c r="B241" s="2">
         <v>281633</v>
+      </c>
+      <c r="C241" s="2">
+        <v>58</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>5</v>

--- a/Data/raw_imaging_data.xlsx
+++ b/Data/raw_imaging_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonahschwartz/Documents/GitHub/Sleep-Final-Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF41F91-3F89-B642-BD89-3179B3FA59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00CEBF9-A609-274E-9A07-25FC9475442F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16460" xr2:uid="{9C7DD11A-90AC-4141-B5D8-9465E75F7745}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3252" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="48">
   <si>
     <t>Patient ID</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>Left Inferior, Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Inferior Side Unknown</t>
@@ -586,8 +583,8 @@
   <dimension ref="A1:K406"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E119" sqref="E119"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -660,13 +657,13 @@
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>17</v>
@@ -695,13 +692,13 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>11</v>
@@ -730,19 +727,19 @@
         <v>7</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -765,13 +762,13 @@
         <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>16</v>
@@ -800,19 +797,19 @@
         <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -835,19 +832,19 @@
         <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -870,19 +867,19 @@
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -908,16 +905,16 @@
         <v>17</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -946,13 +943,13 @@
         <v>17</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -975,13 +972,13 @@
         <v>7</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>11</v>
@@ -1010,19 +1007,19 @@
         <v>7</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1048,13 +1045,13 @@
         <v>17</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>21</v>
@@ -1080,19 +1077,19 @@
         <v>7</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1115,13 +1112,13 @@
         <v>7</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>17</v>
@@ -1153,16 +1150,16 @@
         <v>28</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1185,19 +1182,19 @@
         <v>7</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1223,16 +1220,16 @@
         <v>16</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1261,13 +1258,13 @@
         <v>11</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1290,13 +1287,13 @@
         <v>7</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>11</v>
@@ -1325,19 +1322,19 @@
         <v>7</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1360,13 +1357,13 @@
         <v>7</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>16</v>
@@ -1395,19 +1392,19 @@
         <v>7</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1430,19 +1427,19 @@
         <v>7</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1465,19 +1462,19 @@
         <v>7</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1500,19 +1497,19 @@
         <v>7</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1535,19 +1532,19 @@
         <v>7</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1570,19 +1567,19 @@
         <v>7</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="I28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1614,10 +1611,10 @@
         <v>13</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1640,19 +1637,19 @@
         <v>7</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1675,19 +1672,19 @@
         <v>7</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -1710,7 +1707,7 @@
         <v>7</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>11</v>
@@ -1722,7 +1719,7 @@
         <v>13</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1745,19 +1742,19 @@
         <v>7</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -1780,19 +1777,19 @@
         <v>7</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -1815,19 +1812,19 @@
         <v>7</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -1850,19 +1847,19 @@
         <v>7</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -1885,19 +1882,19 @@
         <v>7</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -1920,19 +1917,19 @@
         <v>7</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -1955,19 +1952,19 @@
         <v>7</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -1990,19 +1987,19 @@
         <v>7</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -2025,19 +2022,19 @@
         <v>7</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -2060,19 +2057,19 @@
         <v>7</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -2095,10 +2092,10 @@
         <v>7</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>11</v>
@@ -2107,7 +2104,7 @@
         <v>11</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -2130,19 +2127,19 @@
         <v>7</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -2165,19 +2162,19 @@
         <v>7</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -2200,7 +2197,7 @@
         <v>7</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>11</v>
@@ -2212,7 +2209,7 @@
         <v>11</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -2235,16 +2232,16 @@
         <v>7</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>16</v>
@@ -2270,19 +2267,19 @@
         <v>7</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -2305,19 +2302,19 @@
         <v>7</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -2340,19 +2337,19 @@
         <v>7</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -2375,19 +2372,19 @@
         <v>7</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -2410,19 +2407,19 @@
         <v>7</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -2445,19 +2442,19 @@
         <v>7</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -2480,19 +2477,19 @@
         <v>7</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -2515,19 +2512,19 @@
         <v>7</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -2544,13 +2541,13 @@
         <v>5</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>11</v>
@@ -2562,7 +2559,7 @@
         <v>11</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -2585,19 +2582,19 @@
         <v>7</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -2620,10 +2617,10 @@
         <v>7</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>13</v>
@@ -2632,7 +2629,7 @@
         <v>16</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -2664,10 +2661,10 @@
         <v>18</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -2690,10 +2687,10 @@
         <v>7</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>20</v>
@@ -2702,7 +2699,7 @@
         <v>20</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -2725,19 +2722,19 @@
         <v>7</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -2760,7 +2757,7 @@
         <v>7</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>21</v>
@@ -2772,7 +2769,7 @@
         <v>11</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -2795,10 +2792,10 @@
         <v>7</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>21</v>
@@ -2807,7 +2804,7 @@
         <v>21</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -2830,7 +2827,7 @@
         <v>7</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>16</v>
@@ -2865,10 +2862,10 @@
         <v>7</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>11</v>
@@ -2877,7 +2874,7 @@
         <v>11</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -2900,10 +2897,10 @@
         <v>7</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>17</v>
@@ -2912,7 +2909,7 @@
         <v>17</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -2935,7 +2932,7 @@
         <v>7</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>11</v>
@@ -2947,7 +2944,7 @@
         <v>11</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -2970,10 +2967,10 @@
         <v>7</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>11</v>
@@ -2982,7 +2979,7 @@
         <v>17</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -3005,7 +3002,7 @@
         <v>7</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>13</v>
@@ -3017,7 +3014,7 @@
         <v>11</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -3040,7 +3037,7 @@
         <v>7</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>21</v>
@@ -3052,7 +3049,7 @@
         <v>11</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -3075,10 +3072,10 @@
         <v>7</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>11</v>
@@ -3087,7 +3084,7 @@
         <v>17</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -3110,10 +3107,10 @@
         <v>7</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>20</v>
@@ -3122,7 +3119,7 @@
         <v>20</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -3145,10 +3142,10 @@
         <v>7</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>11</v>
@@ -3157,7 +3154,7 @@
         <v>11</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -3180,19 +3177,19 @@
         <v>7</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -3215,19 +3212,19 @@
         <v>7</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
@@ -3250,10 +3247,10 @@
         <v>7</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>11</v>
@@ -3262,7 +3259,7 @@
         <v>11</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
@@ -3285,10 +3282,10 @@
         <v>7</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>21</v>
@@ -3297,7 +3294,7 @@
         <v>21</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
@@ -3320,10 +3317,10 @@
         <v>7</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>17</v>
@@ -3332,7 +3329,7 @@
         <v>13</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -3355,10 +3352,10 @@
         <v>7</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>11</v>
@@ -3367,7 +3364,7 @@
         <v>17</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
@@ -3390,19 +3387,19 @@
         <v>7</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -3425,19 +3422,19 @@
         <v>7</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -3460,19 +3457,19 @@
         <v>7</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
@@ -3495,10 +3492,10 @@
         <v>7</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>17</v>
@@ -3507,7 +3504,7 @@
         <v>11</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
@@ -3530,19 +3527,19 @@
         <v>7</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
@@ -3565,7 +3562,7 @@
         <v>7</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>11</v>
@@ -3577,7 +3574,7 @@
         <v>11</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
@@ -3600,19 +3597,19 @@
         <v>7</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
@@ -3635,10 +3632,10 @@
         <v>7</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>20</v>
@@ -3647,7 +3644,7 @@
         <v>11</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
@@ -3670,19 +3667,19 @@
         <v>7</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
@@ -3705,19 +3702,19 @@
         <v>7</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -3740,19 +3737,19 @@
         <v>7</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -3769,13 +3766,13 @@
         <v>15</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>16</v>
@@ -3787,7 +3784,7 @@
         <v>16</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -3804,13 +3801,13 @@
         <v>5</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>21</v>
@@ -3822,7 +3819,7 @@
         <v>11</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -3845,7 +3842,7 @@
         <v>7</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>17</v>
@@ -3857,7 +3854,7 @@
         <v>17</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
@@ -3880,7 +3877,7 @@
         <v>7</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>17</v>
@@ -3892,7 +3889,7 @@
         <v>11</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
@@ -3915,19 +3912,19 @@
         <v>7</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -3950,7 +3947,7 @@
         <v>7</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>17</v>
@@ -3962,7 +3959,7 @@
         <v>17</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -3985,7 +3982,7 @@
         <v>7</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>11</v>
@@ -3997,7 +3994,7 @@
         <v>11</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -4020,19 +4017,19 @@
         <v>7</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
@@ -4055,7 +4052,7 @@
         <v>7</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>11</v>
@@ -4067,7 +4064,7 @@
         <v>11</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
@@ -4090,19 +4087,19 @@
         <v>7</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -4125,7 +4122,7 @@
         <v>7</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>11</v>
@@ -4137,7 +4134,7 @@
         <v>11</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -4160,19 +4157,19 @@
         <v>7</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
@@ -4195,19 +4192,19 @@
         <v>7</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -4230,7 +4227,7 @@
         <v>7</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>11</v>
@@ -4242,7 +4239,7 @@
         <v>17</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -4265,7 +4262,7 @@
         <v>7</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>17</v>
@@ -4277,7 +4274,7 @@
         <v>25</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
@@ -4300,10 +4297,10 @@
         <v>7</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>11</v>
@@ -4312,7 +4309,7 @@
         <v>11</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
@@ -4335,19 +4332,19 @@
         <v>7</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
@@ -4370,10 +4367,10 @@
         <v>7</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>17</v>
@@ -4382,7 +4379,7 @@
         <v>17</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -4405,19 +4402,19 @@
         <v>7</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
@@ -4440,19 +4437,19 @@
         <v>7</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -4475,10 +4472,10 @@
         <v>7</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>13</v>
@@ -4487,7 +4484,7 @@
         <v>13</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
@@ -4510,19 +4507,19 @@
         <v>7</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
@@ -4545,7 +4542,7 @@
         <v>7</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>11</v>
@@ -4557,7 +4554,7 @@
         <v>11</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
@@ -4580,10 +4577,10 @@
         <v>7</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>17</v>
@@ -4615,19 +4612,19 @@
         <v>7</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
@@ -4650,19 +4647,19 @@
         <v>23</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
@@ -4685,7 +4682,7 @@
         <v>7</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>13</v>
@@ -4697,7 +4694,7 @@
         <v>11</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -4720,7 +4717,7 @@
         <v>7</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>11</v>
@@ -4732,7 +4729,7 @@
         <v>16</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
@@ -4755,7 +4752,7 @@
         <v>7</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>11</v>
@@ -4767,7 +4764,7 @@
         <v>11</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
@@ -4790,19 +4787,19 @@
         <v>7</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
@@ -4825,19 +4822,19 @@
         <v>7</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
@@ -4860,10 +4857,10 @@
         <v>7</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I122" s="2" t="s">
         <v>20</v>
@@ -4872,7 +4869,7 @@
         <v>20</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
@@ -4895,10 +4892,10 @@
         <v>7</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>11</v>
@@ -4907,7 +4904,7 @@
         <v>11</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -4930,10 +4927,10 @@
         <v>7</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I124" s="2" t="s">
         <v>11</v>
@@ -4942,7 +4939,7 @@
         <v>11</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
@@ -4965,10 +4962,10 @@
         <v>7</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>11</v>
@@ -4977,7 +4974,7 @@
         <v>11</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
@@ -5000,10 +4997,10 @@
         <v>7</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I126" s="2" t="s">
         <v>11</v>
@@ -5012,7 +5009,7 @@
         <v>17</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
@@ -5035,10 +5032,10 @@
         <v>7</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I127" s="2" t="s">
         <v>16</v>
@@ -5047,7 +5044,7 @@
         <v>11</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
@@ -5070,19 +5067,19 @@
         <v>7</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
@@ -5105,19 +5102,19 @@
         <v>7</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
@@ -5140,10 +5137,10 @@
         <v>7</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I130" s="2" t="s">
         <v>21</v>
@@ -5152,7 +5149,7 @@
         <v>11</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
@@ -5169,25 +5166,25 @@
         <v>5</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
@@ -5210,10 +5207,10 @@
         <v>7</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I132" s="2" t="s">
         <v>13</v>
@@ -5222,7 +5219,7 @@
         <v>11</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
@@ -5245,10 +5242,10 @@
         <v>7</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>16</v>
@@ -5257,7 +5254,7 @@
         <v>16</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
@@ -5280,7 +5277,7 @@
         <v>7</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>21</v>
@@ -5292,7 +5289,7 @@
         <v>11</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
@@ -5315,19 +5312,19 @@
         <v>7</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
@@ -5350,10 +5347,10 @@
         <v>7</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I136" s="2" t="s">
         <v>16</v>
@@ -5362,7 +5359,7 @@
         <v>16</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
@@ -5385,7 +5382,7 @@
         <v>7</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>17</v>
@@ -5397,7 +5394,7 @@
         <v>11</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
@@ -5420,10 +5417,10 @@
         <v>7</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I138" s="2" t="s">
         <v>17</v>
@@ -5432,7 +5429,7 @@
         <v>17</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
@@ -5455,10 +5452,10 @@
         <v>7</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I139" s="2" t="s">
         <v>17</v>
@@ -5467,7 +5464,7 @@
         <v>16</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
@@ -5490,10 +5487,10 @@
         <v>7</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I140" s="4" t="s">
         <v>11</v>
@@ -5502,7 +5499,7 @@
         <v>13</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
@@ -5525,7 +5522,7 @@
         <v>7</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>11</v>
@@ -5537,7 +5534,7 @@
         <v>17</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
@@ -5560,10 +5557,10 @@
         <v>7</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I142" s="2" t="s">
         <v>11</v>
@@ -5572,7 +5569,7 @@
         <v>16</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
@@ -5595,19 +5592,19 @@
         <v>7</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
@@ -5630,19 +5627,19 @@
         <v>7</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
@@ -5665,7 +5662,7 @@
         <v>7</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>11</v>
@@ -5677,7 +5674,7 @@
         <v>17</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
@@ -5700,10 +5697,10 @@
         <v>7</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>11</v>
@@ -5735,19 +5732,19 @@
         <v>7</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
@@ -5770,7 +5767,7 @@
         <v>7</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>21</v>
@@ -5782,7 +5779,7 @@
         <v>16</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
@@ -5805,10 +5802,10 @@
         <v>7</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I149" s="2" t="s">
         <v>13</v>
@@ -5817,7 +5814,7 @@
         <v>11</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
@@ -5840,19 +5837,19 @@
         <v>7</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
@@ -5875,10 +5872,10 @@
         <v>7</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I151" s="2" t="s">
         <v>16</v>
@@ -5887,7 +5884,7 @@
         <v>16</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
@@ -5910,7 +5907,7 @@
         <v>7</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>21</v>
@@ -5922,7 +5919,7 @@
         <v>11</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
@@ -5945,7 +5942,7 @@
         <v>7</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>11</v>
@@ -5957,7 +5954,7 @@
         <v>20</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
@@ -5980,10 +5977,10 @@
         <v>7</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I154" s="2" t="s">
         <v>16</v>
@@ -5992,7 +5989,7 @@
         <v>21</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
@@ -6015,10 +6012,10 @@
         <v>7</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I155" s="2" t="s">
         <v>29</v>
@@ -6027,7 +6024,7 @@
         <v>17</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
@@ -6050,19 +6047,19 @@
         <v>7</v>
       </c>
       <c r="G156" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I156" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I156" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
@@ -6085,19 +6082,19 @@
         <v>7</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J157" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
@@ -6123,16 +6120,16 @@
         <v>11</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I158" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
@@ -6158,16 +6155,16 @@
         <v>11</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I159" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
@@ -6190,10 +6187,10 @@
         <v>7</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I160" s="2" t="s">
         <v>17</v>
@@ -6202,7 +6199,7 @@
         <v>13</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
@@ -6231,13 +6228,13 @@
         <v>13</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
@@ -6266,13 +6263,13 @@
         <v>11</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
@@ -6298,16 +6295,16 @@
         <v>17</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I163" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
@@ -6339,10 +6336,10 @@
         <v>11</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
@@ -6368,16 +6365,16 @@
         <v>21</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I165" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
@@ -6403,16 +6400,16 @@
         <v>11</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I166" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
@@ -6441,13 +6438,13 @@
         <v>17</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
@@ -6476,13 +6473,13 @@
         <v>11</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
@@ -6505,10 +6502,10 @@
         <v>7</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I169" s="2" t="s">
         <v>16</v>
@@ -6517,7 +6514,7 @@
         <v>16</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
@@ -6546,13 +6543,13 @@
         <v>13</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
@@ -6578,16 +6575,16 @@
         <v>17</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
@@ -6613,16 +6610,16 @@
         <v>13</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J172" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
@@ -6645,19 +6642,19 @@
         <v>7</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
@@ -6683,16 +6680,16 @@
         <v>16</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I174" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
@@ -6715,19 +6712,19 @@
         <v>7</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J175" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
@@ -6753,16 +6750,16 @@
         <v>11</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I176" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
@@ -6785,19 +6782,19 @@
         <v>7</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J177" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
@@ -6823,16 +6820,16 @@
         <v>11</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I178" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
@@ -6861,13 +6858,13 @@
         <v>17</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
@@ -6893,16 +6890,16 @@
         <v>16</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I180" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
@@ -6928,16 +6925,16 @@
         <v>16</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
@@ -6966,13 +6963,13 @@
         <v>17</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
@@ -6998,16 +6995,16 @@
         <v>11</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I183" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J183" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
@@ -7033,16 +7030,16 @@
         <v>11</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I184" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
@@ -7068,16 +7065,16 @@
         <v>16</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
@@ -7100,10 +7097,10 @@
         <v>7</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I186" s="2" t="s">
         <v>11</v>
@@ -7112,7 +7109,7 @@
         <v>13</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
@@ -7135,19 +7132,19 @@
         <v>7</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
@@ -7173,16 +7170,16 @@
         <v>13</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I188" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
@@ -7211,13 +7208,13 @@
         <v>11</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J189" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
@@ -7243,16 +7240,16 @@
         <v>13</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I190" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
@@ -7278,16 +7275,16 @@
         <v>21</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
@@ -7313,16 +7310,16 @@
         <v>13</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J192" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
@@ -7348,16 +7345,16 @@
         <v>11</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I193" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
@@ -7386,13 +7383,13 @@
         <v>11</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
@@ -7418,16 +7415,16 @@
         <v>17</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I195" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K195" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
@@ -7453,16 +7450,16 @@
         <v>16</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
@@ -7488,16 +7485,16 @@
         <v>18</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I197" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K197" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
@@ -7523,16 +7520,16 @@
         <v>17</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I198" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
@@ -7555,7 +7552,7 @@
         <v>7</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H199" s="2" t="s">
         <v>11</v>
@@ -7567,7 +7564,7 @@
         <v>11</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
@@ -7593,16 +7590,16 @@
         <v>16</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I200" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J200" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
@@ -7628,16 +7625,16 @@
         <v>17</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K201" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
@@ -7666,13 +7663,13 @@
         <v>11</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K202" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
@@ -7704,10 +7701,10 @@
         <v>16</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K203" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
@@ -7733,16 +7730,16 @@
         <v>16</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I204" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
@@ -7765,10 +7762,10 @@
         <v>7</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I205" s="2" t="s">
         <v>13</v>
@@ -7777,7 +7774,7 @@
         <v>17</v>
       </c>
       <c r="K205" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
@@ -7803,16 +7800,16 @@
         <v>16</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I206" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K206" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
@@ -7838,16 +7835,16 @@
         <v>21</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K207" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
@@ -7864,25 +7861,25 @@
         <v>5</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H208" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K208" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
@@ -7911,13 +7908,13 @@
         <v>17</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K209" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
@@ -7943,16 +7940,16 @@
         <v>11</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K210" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
@@ -7975,10 +7972,10 @@
         <v>7</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I211" s="2" t="s">
         <v>11</v>
@@ -7987,7 +7984,7 @@
         <v>11</v>
       </c>
       <c r="K211" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
@@ -8019,10 +8016,10 @@
         <v>17</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K212" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
@@ -8048,16 +8045,16 @@
         <v>20</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J213" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K213" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
@@ -8083,16 +8080,16 @@
         <v>20</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I214" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J214" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K214" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
@@ -8118,7 +8115,7 @@
         <v>17</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I215" s="2" t="s">
         <v>13</v>
@@ -8127,7 +8124,7 @@
         <v>11</v>
       </c>
       <c r="K215" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
@@ -8153,16 +8150,16 @@
         <v>17</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K216" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
@@ -8188,16 +8185,16 @@
         <v>16</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J217" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K217" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
@@ -8226,13 +8223,13 @@
         <v>11</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K218" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
@@ -8258,16 +8255,16 @@
         <v>16</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I219" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K219" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
@@ -8293,16 +8290,16 @@
         <v>16</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J220" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K220" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
@@ -8328,16 +8325,16 @@
         <v>11</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I221" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K221" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
@@ -8363,16 +8360,16 @@
         <v>11</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K222" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
@@ -8398,16 +8395,16 @@
         <v>21</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K223" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
@@ -8433,16 +8430,16 @@
         <v>18</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I224" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K224" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
@@ -8459,7 +8456,7 @@
         <v>15</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>23</v>
@@ -8474,10 +8471,10 @@
         <v>11</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K225" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
@@ -8503,16 +8500,16 @@
         <v>13</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I226" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J226" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K226" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
@@ -8535,7 +8532,7 @@
         <v>7</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H227" s="2" t="s">
         <v>11</v>
@@ -8547,7 +8544,7 @@
         <v>13</v>
       </c>
       <c r="K227" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
@@ -8573,16 +8570,16 @@
         <v>11</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I228" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J228" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K228" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
@@ -8611,13 +8608,13 @@
         <v>17</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K229" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
@@ -8646,13 +8643,13 @@
         <v>21</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K230" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
@@ -8681,13 +8678,13 @@
         <v>17</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K231" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
@@ -8713,16 +8710,16 @@
         <v>11</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I232" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K232" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
@@ -8739,7 +8736,7 @@
         <v>5</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>7</v>
@@ -8754,10 +8751,10 @@
         <v>20</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K233" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
@@ -8783,16 +8780,16 @@
         <v>11</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I234" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K234" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
@@ -8818,16 +8815,16 @@
         <v>18</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J235" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K235" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
@@ -8853,16 +8850,16 @@
         <v>11</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I236" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J236" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K236" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
@@ -8888,16 +8885,16 @@
         <v>17</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J237" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K237" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
@@ -8923,16 +8920,16 @@
         <v>17</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J238" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K238" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
@@ -8958,16 +8955,16 @@
         <v>11</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I239" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J239" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K239" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
@@ -8993,16 +8990,16 @@
         <v>16</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I240" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J240" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K240" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
@@ -9028,16 +9025,16 @@
         <v>16</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I241" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J241" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K241" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
@@ -9063,16 +9060,16 @@
         <v>16</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J242" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K242" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
@@ -9098,16 +9095,16 @@
         <v>11</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I243" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K243" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
@@ -9130,10 +9127,10 @@
         <v>7</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I244" s="2" t="s">
         <v>11</v>
@@ -9142,7 +9139,7 @@
         <v>16</v>
       </c>
       <c r="K244" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
@@ -9168,16 +9165,16 @@
         <v>16</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J245" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K245" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
@@ -9203,16 +9200,16 @@
         <v>11</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I246" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K246" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
@@ -9241,13 +9238,13 @@
         <v>17</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J247" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K247" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
@@ -9273,16 +9270,16 @@
         <v>17</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J248" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K248" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
@@ -9308,16 +9305,16 @@
         <v>16</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I249" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K249" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
@@ -9343,16 +9340,16 @@
         <v>11</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J250" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K250" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
@@ -9369,7 +9366,7 @@
         <v>15</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>7</v>
@@ -9378,16 +9375,16 @@
         <v>16</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J251" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K251" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
@@ -9413,7 +9410,7 @@
         <v>11</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I252" s="2" t="s">
         <v>17</v>
@@ -9422,7 +9419,7 @@
         <v>17</v>
       </c>
       <c r="K252" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
@@ -9448,7 +9445,7 @@
         <v>21</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I253" s="2" t="s">
         <v>27</v>
@@ -9457,7 +9454,7 @@
         <v>21</v>
       </c>
       <c r="K253" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
@@ -9489,10 +9486,10 @@
         <v>11</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K254" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
@@ -9518,16 +9515,16 @@
         <v>17</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J255" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K255" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
@@ -9556,13 +9553,13 @@
         <v>17</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J256" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K256" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
@@ -9588,16 +9585,16 @@
         <v>20</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J257" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K257" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
@@ -9626,13 +9623,13 @@
         <v>11</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J258" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K258" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
@@ -9655,7 +9652,7 @@
         <v>7</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H259" s="2" t="s">
         <v>16</v>
@@ -9667,7 +9664,7 @@
         <v>11</v>
       </c>
       <c r="K259" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
@@ -9699,10 +9696,10 @@
         <v>17</v>
       </c>
       <c r="J260" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K260" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
@@ -9734,10 +9731,10 @@
         <v>21</v>
       </c>
       <c r="J261" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K261" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
@@ -9769,10 +9766,10 @@
         <v>16</v>
       </c>
       <c r="J262" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K262" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
@@ -9798,16 +9795,16 @@
         <v>11</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I263" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J263" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K263" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
@@ -9833,16 +9830,16 @@
         <v>11</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I264" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J264" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K264" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
@@ -9874,10 +9871,10 @@
         <v>29</v>
       </c>
       <c r="J265" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K265" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
@@ -9903,16 +9900,16 @@
         <v>11</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I266" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J266" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K266" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
@@ -9938,16 +9935,16 @@
         <v>17</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I267" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J267" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K267" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
@@ -9973,16 +9970,16 @@
         <v>11</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I268" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J268" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K268" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
@@ -10008,16 +10005,16 @@
         <v>13</v>
       </c>
       <c r="H269" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I269" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J269" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K269" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
@@ -10046,13 +10043,13 @@
         <v>11</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J270" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K270" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
@@ -10075,19 +10072,19 @@
         <v>7</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I271" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J271" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K271" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
@@ -10116,13 +10113,13 @@
         <v>13</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J272" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K272" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
@@ -10154,10 +10151,10 @@
         <v>25</v>
       </c>
       <c r="J273" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K273" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.2">
@@ -10183,16 +10180,16 @@
         <v>17</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J274" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K274" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
@@ -10218,16 +10215,16 @@
         <v>16</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J275" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K275" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
@@ -10244,7 +10241,7 @@
         <v>5</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>7</v>
@@ -10253,16 +10250,16 @@
         <v>13</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J276" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K276" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
@@ -10288,16 +10285,16 @@
         <v>18</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I277" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J277" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K277" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.2">
@@ -10323,16 +10320,16 @@
         <v>11</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I278" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J278" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K278" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.2">
@@ -10358,16 +10355,16 @@
         <v>11</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I279" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J279" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K279" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.2">
@@ -10393,16 +10390,16 @@
         <v>17</v>
       </c>
       <c r="H280" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I280" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J280" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K280" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
@@ -10425,13 +10422,13 @@
         <v>7</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H281" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J281" s="2" t="s">
         <v>17</v>
@@ -10463,16 +10460,16 @@
         <v>20</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I282" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J282" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K282" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.2">
@@ -10498,16 +10495,16 @@
         <v>17</v>
       </c>
       <c r="H283" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I283" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J283" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K283" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.2">
@@ -10533,16 +10530,16 @@
         <v>17</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I284" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J284" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K284" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.2">
@@ -10568,16 +10565,16 @@
         <v>16</v>
       </c>
       <c r="H285" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I285" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J285" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K285" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.2">
@@ -10603,16 +10600,16 @@
         <v>17</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J286" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K286" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
@@ -10638,16 +10635,16 @@
         <v>13</v>
       </c>
       <c r="H287" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I287" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J287" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K287" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.2">
@@ -10673,16 +10670,16 @@
         <v>17</v>
       </c>
       <c r="H288" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J288" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K288" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
@@ -10708,16 +10705,16 @@
         <v>11</v>
       </c>
       <c r="H289" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I289" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J289" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K289" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
@@ -10743,16 +10740,16 @@
         <v>16</v>
       </c>
       <c r="H290" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I290" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J290" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K290" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
@@ -10778,16 +10775,16 @@
         <v>11</v>
       </c>
       <c r="H291" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I291" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J291" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K291" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
@@ -10813,16 +10810,16 @@
         <v>11</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I292" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J292" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K292" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
@@ -10839,13 +10836,13 @@
         <v>5</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H293" s="2" t="s">
         <v>11</v>
@@ -10854,10 +10851,10 @@
         <v>13</v>
       </c>
       <c r="J293" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K293" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
@@ -10883,16 +10880,16 @@
         <v>16</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J294" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K294" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
@@ -10918,16 +10915,16 @@
         <v>16</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I295" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J295" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K295" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
@@ -10953,16 +10950,16 @@
         <v>11</v>
       </c>
       <c r="H296" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I296" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J296" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K296" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
@@ -10988,16 +10985,16 @@
         <v>13</v>
       </c>
       <c r="H297" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I297" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J297" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K297" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
@@ -11023,16 +11020,16 @@
         <v>33</v>
       </c>
       <c r="H298" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I298" s="4" t="s">
         <v>27</v>
       </c>
       <c r="J298" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K298" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.2">
@@ -11055,19 +11052,19 @@
         <v>7</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I299" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J299" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K299" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.2">
@@ -11093,16 +11090,16 @@
         <v>21</v>
       </c>
       <c r="H300" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I300" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J300" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K300" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.2">
@@ -11128,16 +11125,16 @@
         <v>16</v>
       </c>
       <c r="H301" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I301" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J301" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K301" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.2">
@@ -11163,16 +11160,16 @@
         <v>11</v>
       </c>
       <c r="H302" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I302" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J302" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K302" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.2">
@@ -11198,16 +11195,16 @@
         <v>16</v>
       </c>
       <c r="H303" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I303" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J303" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K303" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.2">
@@ -11233,16 +11230,16 @@
         <v>11</v>
       </c>
       <c r="H304" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I304" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J304" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K304" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.2">
@@ -11265,19 +11262,19 @@
         <v>7</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H305" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J305" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K305" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.2">
@@ -11300,19 +11297,19 @@
         <v>7</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H306" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I306" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J306" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K306" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.2">
@@ -11338,16 +11335,16 @@
         <v>13</v>
       </c>
       <c r="H307" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I307" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J307" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K307" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.2">
@@ -11376,13 +11373,13 @@
         <v>17</v>
       </c>
       <c r="I308" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J308" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K308" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.2">
@@ -11408,16 +11405,16 @@
         <v>17</v>
       </c>
       <c r="H309" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I309" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J309" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K309" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.2">
@@ -11443,16 +11440,16 @@
         <v>17</v>
       </c>
       <c r="H310" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I310" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J310" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K310" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.2">
@@ -11469,7 +11466,7 @@
         <v>5</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>7</v>
@@ -11478,16 +11475,16 @@
         <v>17</v>
       </c>
       <c r="H311" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I311" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J311" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K311" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.2">
@@ -11513,16 +11510,16 @@
         <v>16</v>
       </c>
       <c r="H312" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I312" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J312" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K312" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.2">
@@ -11548,16 +11545,16 @@
         <v>16</v>
       </c>
       <c r="H313" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J313" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K313" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.2">
@@ -11583,16 +11580,16 @@
         <v>11</v>
       </c>
       <c r="H314" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I314" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J314" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K314" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.2">
@@ -11624,10 +11621,10 @@
         <v>11</v>
       </c>
       <c r="J315" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K315" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.2">
@@ -11653,16 +11650,16 @@
         <v>13</v>
       </c>
       <c r="H316" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I316" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J316" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K316" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.2">
@@ -11688,16 +11685,16 @@
         <v>16</v>
       </c>
       <c r="H317" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I317" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J317" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K317" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.2">
@@ -11729,10 +11726,10 @@
         <v>21</v>
       </c>
       <c r="J318" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K318" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.2">
@@ -11755,10 +11752,10 @@
         <v>7</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H319" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I319" s="2" t="s">
         <v>21</v>
@@ -11767,7 +11764,7 @@
         <v>16</v>
       </c>
       <c r="K319" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.2">
@@ -11793,16 +11790,16 @@
         <v>17</v>
       </c>
       <c r="H320" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I320" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J320" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K320" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.2">
@@ -11828,16 +11825,16 @@
         <v>13</v>
       </c>
       <c r="H321" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I321" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J321" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K321" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.2">
@@ -11863,16 +11860,16 @@
         <v>11</v>
       </c>
       <c r="H322" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I322" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J322" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K322" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.2">
@@ -11898,16 +11895,16 @@
         <v>16</v>
       </c>
       <c r="H323" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J323" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K323" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.2">
@@ -11933,16 +11930,16 @@
         <v>17</v>
       </c>
       <c r="H324" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I324" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J324" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K324" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.2">
@@ -11965,19 +11962,19 @@
         <v>7</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H325" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I325" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J325" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K325" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.2">
@@ -12003,16 +12000,16 @@
         <v>27</v>
       </c>
       <c r="H326" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I326" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J326" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K326" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.2">
@@ -12038,16 +12035,16 @@
         <v>13</v>
       </c>
       <c r="H327" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I327" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J327" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K327" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.2">
@@ -12073,16 +12070,16 @@
         <v>17</v>
       </c>
       <c r="H328" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I328" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J328" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K328" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.2">
@@ -12108,16 +12105,16 @@
         <v>17</v>
       </c>
       <c r="H329" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I329" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J329" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K329" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.2">
@@ -12143,16 +12140,16 @@
         <v>27</v>
       </c>
       <c r="H330" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I330" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J330" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K330" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.2">
@@ -12169,7 +12166,7 @@
         <v>5</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>7</v>
@@ -12178,16 +12175,16 @@
         <v>17</v>
       </c>
       <c r="H331" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I331" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J331" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K331" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.2">
@@ -12213,16 +12210,16 @@
         <v>16</v>
       </c>
       <c r="H332" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I332" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J332" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K332" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.2">
@@ -12245,19 +12242,19 @@
         <v>7</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H333" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J333" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K333" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.2">
@@ -12283,16 +12280,16 @@
         <v>11</v>
       </c>
       <c r="H334" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I334" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J334" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K334" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.2">
@@ -12318,16 +12315,16 @@
         <v>25</v>
       </c>
       <c r="H335" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I335" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J335" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K335" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.2">
@@ -12356,13 +12353,13 @@
         <v>18</v>
       </c>
       <c r="I336" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J336" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K336" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.2">
@@ -12388,16 +12385,16 @@
         <v>18</v>
       </c>
       <c r="H337" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J337" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K337" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.2">
@@ -12420,19 +12417,19 @@
         <v>7</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H338" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J338" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K338" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.2">
@@ -12458,16 +12455,16 @@
         <v>11</v>
       </c>
       <c r="H339" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I339" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J339" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K339" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.2">
@@ -12502,7 +12499,7 @@
         <v>17</v>
       </c>
       <c r="K340" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.2">
@@ -12528,16 +12525,16 @@
         <v>17</v>
       </c>
       <c r="H341" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I341" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J341" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K341" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.2">
@@ -12560,19 +12557,19 @@
         <v>7</v>
       </c>
       <c r="G342" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H342" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I342" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J342" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K342" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.2">
@@ -12598,16 +12595,16 @@
         <v>13</v>
       </c>
       <c r="H343" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I343" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J343" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K343" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.2">
@@ -12633,16 +12630,16 @@
         <v>17</v>
       </c>
       <c r="H344" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I344" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J344" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K344" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.2">
@@ -12677,7 +12674,7 @@
         <v>11</v>
       </c>
       <c r="K345" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.2">
@@ -12703,16 +12700,16 @@
         <v>16</v>
       </c>
       <c r="H346" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J346" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K346" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.2">
@@ -12744,10 +12741,10 @@
         <v>11</v>
       </c>
       <c r="J347" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K347" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.2">
@@ -12773,16 +12770,16 @@
         <v>18</v>
       </c>
       <c r="H348" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J348" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K348" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.2">
@@ -12799,25 +12796,25 @@
         <v>5</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I349" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J349" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K349" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.2">
@@ -12834,7 +12831,7 @@
         <v>5</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>7</v>
@@ -12843,16 +12840,16 @@
         <v>16</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I350" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J350" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K350" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.2">
@@ -12878,16 +12875,16 @@
         <v>11</v>
       </c>
       <c r="H351" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I351" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J351" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K351" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.2">
@@ -12913,16 +12910,16 @@
         <v>16</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J352" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K352" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.2">
@@ -12945,19 +12942,19 @@
         <v>7</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H353" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I353" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J353" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K353" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.2">
@@ -12983,16 +12980,16 @@
         <v>20</v>
       </c>
       <c r="H354" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J354" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K354" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.2">
@@ -13018,16 +13015,16 @@
         <v>11</v>
       </c>
       <c r="H355" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I355" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J355" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K355" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.2">
@@ -13053,16 +13050,16 @@
         <v>13</v>
       </c>
       <c r="H356" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I356" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J356" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K356" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.2">
@@ -13091,13 +13088,13 @@
         <v>13</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J357" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K357" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.2">
@@ -13123,16 +13120,16 @@
         <v>13</v>
       </c>
       <c r="H358" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I358" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J358" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K358" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.2">
@@ -13158,16 +13155,16 @@
         <v>17</v>
       </c>
       <c r="H359" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J359" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K359" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.2">
@@ -13193,16 +13190,16 @@
         <v>17</v>
       </c>
       <c r="H360" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I360" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J360" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K360" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.2">
@@ -13228,16 +13225,16 @@
         <v>17</v>
       </c>
       <c r="H361" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J361" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K361" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.2">
@@ -13263,16 +13260,16 @@
         <v>11</v>
       </c>
       <c r="H362" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I362" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J362" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K362" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.2">
@@ -13298,16 +13295,16 @@
         <v>18</v>
       </c>
       <c r="H363" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I363" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J363" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K363" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.2">
@@ -13339,10 +13336,10 @@
         <v>16</v>
       </c>
       <c r="J364" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K364" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.2">
@@ -13371,13 +13368,13 @@
         <v>21</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J365" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K365" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.2">
@@ -13403,16 +13400,16 @@
         <v>17</v>
       </c>
       <c r="H366" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J366" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K366" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.2">
@@ -13441,13 +13438,13 @@
         <v>20</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J367" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K367" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.2">
@@ -13476,13 +13473,13 @@
         <v>11</v>
       </c>
       <c r="I368" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J368" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K368" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.2">
@@ -13492,8 +13489,8 @@
       <c r="B369" s="2">
         <v>187958</v>
       </c>
-      <c r="C369" s="2" t="s">
-        <v>34</v>
+      <c r="C369" s="2">
+        <v>48</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>5</v>
@@ -13505,13 +13502,13 @@
         <v>7</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H369" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J369" s="2" t="s">
         <v>11</v>
@@ -13543,16 +13540,16 @@
         <v>13</v>
       </c>
       <c r="H370" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J370" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K370" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.2">
@@ -13569,7 +13566,7 @@
         <v>5</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F371" s="2" t="s">
         <v>7</v>
@@ -13578,16 +13575,16 @@
         <v>16</v>
       </c>
       <c r="H371" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I371" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J371" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K371" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.2">
@@ -13610,19 +13607,19 @@
         <v>7</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H372" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J372" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K372" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.2">
@@ -13639,7 +13636,7 @@
         <v>5</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>7</v>
@@ -13654,10 +13651,10 @@
         <v>16</v>
       </c>
       <c r="J373" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K373" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.2">
@@ -13683,16 +13680,16 @@
         <v>13</v>
       </c>
       <c r="H374" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J374" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K374" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.2">
@@ -13718,16 +13715,16 @@
         <v>17</v>
       </c>
       <c r="H375" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J375" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K375" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.2">
@@ -13753,16 +13750,16 @@
         <v>17</v>
       </c>
       <c r="H376" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I376" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J376" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K376" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.2">
@@ -13788,16 +13785,16 @@
         <v>17</v>
       </c>
       <c r="H377" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I377" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J377" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K377" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.2">
@@ -13820,10 +13817,10 @@
         <v>7</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H378" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I378" s="2" t="s">
         <v>20</v>
@@ -13832,7 +13829,7 @@
         <v>20</v>
       </c>
       <c r="K378" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.2">
@@ -13858,16 +13855,16 @@
         <v>11</v>
       </c>
       <c r="H379" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I379" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J379" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K379" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.2">
@@ -13899,10 +13896,10 @@
         <v>17</v>
       </c>
       <c r="J380" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K380" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.2">
@@ -13925,7 +13922,7 @@
         <v>7</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H381" s="2" t="s">
         <v>11</v>
@@ -13934,10 +13931,10 @@
         <v>17</v>
       </c>
       <c r="J381" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K381" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.2">
@@ -13963,16 +13960,16 @@
         <v>16</v>
       </c>
       <c r="H382" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I382" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J382" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K382" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.2">
@@ -14001,13 +13998,13 @@
         <v>11</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J383" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K383" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.2">
@@ -14039,10 +14036,10 @@
         <v>11</v>
       </c>
       <c r="J384" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K384" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.2">
@@ -14065,7 +14062,7 @@
         <v>7</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H385" s="2" t="s">
         <v>21</v>
@@ -14074,10 +14071,10 @@
         <v>21</v>
       </c>
       <c r="J385" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K385" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.2">
@@ -14103,16 +14100,16 @@
         <v>21</v>
       </c>
       <c r="H386" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I386" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J386" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K386" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.2">
@@ -14144,10 +14141,10 @@
         <v>16</v>
       </c>
       <c r="J387" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K387" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.2">
@@ -14173,16 +14170,16 @@
         <v>17</v>
       </c>
       <c r="H388" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I388" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J388" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K388" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.2">
@@ -14208,16 +14205,16 @@
         <v>18</v>
       </c>
       <c r="H389" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I389" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J389" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K389" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.2">
@@ -14243,16 +14240,16 @@
         <v>17</v>
       </c>
       <c r="H390" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I390" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J390" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K390" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.2">
@@ -14278,16 +14275,16 @@
         <v>17</v>
       </c>
       <c r="H391" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J391" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K391" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.2">
@@ -14313,16 +14310,16 @@
         <v>13</v>
       </c>
       <c r="H392" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I392" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J392" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K392" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.2">
@@ -14348,16 +14345,16 @@
         <v>16</v>
       </c>
       <c r="H393" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I393" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J393" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K393" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.2">
@@ -14389,10 +14386,10 @@
         <v>20</v>
       </c>
       <c r="J394" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K394" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.2">
@@ -14409,7 +14406,7 @@
         <v>5</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>7</v>
@@ -14418,16 +14415,16 @@
         <v>21</v>
       </c>
       <c r="H395" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I395" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J395" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K395" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.2">
@@ -14453,16 +14450,16 @@
         <v>18</v>
       </c>
       <c r="H396" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I396" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J396" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K396" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.2">
@@ -14488,16 +14485,16 @@
         <v>11</v>
       </c>
       <c r="H397" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I397" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J397" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K397" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.2">
@@ -14526,13 +14523,13 @@
         <v>17</v>
       </c>
       <c r="I398" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J398" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K398" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.2">
@@ -14564,10 +14561,10 @@
         <v>17</v>
       </c>
       <c r="J399" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K399" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.2">
@@ -14593,16 +14590,16 @@
         <v>11</v>
       </c>
       <c r="H400" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I400" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J400" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K400" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.2">
@@ -14631,13 +14628,13 @@
         <v>11</v>
       </c>
       <c r="I401" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J401" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K401" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.2">
@@ -14666,13 +14663,13 @@
         <v>25</v>
       </c>
       <c r="I402" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J402" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K402" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.2">
@@ -14698,16 +14695,16 @@
         <v>17</v>
       </c>
       <c r="H403" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I403" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J403" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K403" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.2">
@@ -14739,10 +14736,10 @@
         <v>31</v>
       </c>
       <c r="J404" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K404" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.2">
@@ -14759,7 +14756,7 @@
         <v>5</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>7</v>
@@ -14774,10 +14771,10 @@
         <v>13</v>
       </c>
       <c r="J405" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K405" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.2">
@@ -14803,16 +14800,16 @@
         <v>25</v>
       </c>
       <c r="H406" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I406" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J406" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K406" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
